--- a/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Git\RNDProject\Portfolio_2D\Portfolio_2D\Assets\05. DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3F2C6C-58C5-49D7-B207-E50DDCE932C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8173ED6-BF3B-4D41-B0E0-B819C2EB21E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isSumCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력을 40% 증가 시킵니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +125,9 @@
   <si>
     <t>conditionType</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isResetCount</t>
   </si>
 </sst>
 </file>
@@ -472,7 +471,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -509,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -520,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -546,10 +545,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>

--- a/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Git\RNDProject\Portfolio_2D\Portfolio_2D\Assets\05. DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8173ED6-BF3B-4D41-B0E0-B819C2EB21E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B0B19-2F4F-4EF8-A6E9-0E6221BF2E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ConditionTable" sheetId="1" r:id="rId1"/>
+    <sheet name="ConditionData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Git\RNDProject\Portfolio_2D\Portfolio_2D\Assets\05. DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B0B19-2F4F-4EF8-A6E9-0E6221BF2E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2418A6EF-156F-462E-BE1D-E3912045FCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConditionData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>KimHawon</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{12B6BD07-CFEF-483E-AF8F-1BF7410DEBCC}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{12B6BD07-CFEF-483E-AF8F-1BF7410DEBCC}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,17 @@
   </si>
   <si>
     <t>isResetCount</t>
+  </si>
+  <si>
+    <t>conditionIconSpriteName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Condition_IncreaseAttackDamage</t>
+  </si>
+  <si>
+    <t>Sprite_Condition_Posion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -183,10 +194,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -480,12 +494,13 @@
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,19 +514,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -524,20 +542,23 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="b">
+      <c r="G2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="b">
+      <c r="H2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="b">
+      <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -550,16 +571,19 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="b">
+      <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="b">
+      <c r="H3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="b">
+      <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Git\RNDProject\Portfolio_2D\Portfolio_2D\Assets\05. DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\KHW\Portfolio_2D\Portfolio_2D\Assets\05. DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2418A6EF-156F-462E-BE1D-E3912045FCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ConditionData" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>KimHawon</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{12B6BD07-CFEF-483E-AF8F-1BF7410DEBCC}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,13 +137,28 @@
   </si>
   <si>
     <t>Sprite_Condition_Posion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Condition_Brand</t>
+  </si>
+  <si>
+    <t>대상의 방어력을 20%만큼 감소 시킵니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,11 +495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -495,7 +509,7 @@
     <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -585,6 +599,35 @@
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\KHW\Portfolio_2D\Portfolio_2D\Assets\05. DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Git\RNDProject\Portfolio_2D\Portfolio_2D\Assets\05. DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4379C5-CF78-4209-B3EE-D2DEA05AD8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConditionData" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>KimHawon</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,13 +153,28 @@
   </si>
   <si>
     <t>대상의 방어력을 20%만큼 감소 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력을 30% 증가 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Condition_IncreaseDefencePoint</t>
+  </si>
+  <si>
+    <t>IncreaseDefencePoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,11 +511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -630,6 +646,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Git\RNDProject\Portfolio_2D\Portfolio_2D\Assets\05. DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4379C5-CF78-4209-B3EE-D2DEA05AD8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CEDB5B-84EA-42D1-8E6B-A48371BA5CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConditionData" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,20 @@
   <si>
     <t>IncreaseDefencePoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불안정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 저항을 30% 감소시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unstable</t>
+  </si>
+  <si>
+    <t>Sprite_Condition_Unstable</t>
   </si>
 </sst>
 </file>
@@ -512,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -675,6 +689,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Git\RNDProject\Portfolio_2D\Portfolio_2D\Assets\05. DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\KHW\Portfolio_2D\Portfolio_2D\Assets\05. DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CEDB5B-84EA-42D1-8E6B-A48371BA5CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ConditionData" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>KimHawon</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,12 +182,41 @@
   </si>
   <si>
     <t>Sprite_Condition_Unstable</t>
+  </si>
+  <si>
+    <t>은신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 단일 공격의 대상이 되지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Condition_Hide</t>
+  </si>
+  <si>
+    <t>칼날 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해을 입을 시 피해를 입힌 대상에게 피해량의 50%만큼 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BladeShield</t>
+  </si>
+  <si>
+    <t>Sprite_Condition_BladeShield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,13 +266,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,23 +559,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -551,7 +587,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -580,13 +616,13 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1">
@@ -609,13 +645,13 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1">
@@ -638,13 +674,13 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="1">
@@ -667,13 +703,13 @@
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1">
@@ -696,13 +732,13 @@
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="1">
@@ -715,6 +751,64 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/ConditionDataTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\KHW\Portfolio_2D\Portfolio_2D\Assets\05. DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Git\RNDProject\Portfolio_2D\Portfolio_2D\Assets\05. DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E7B668-0BA2-4343-B947-24D5C0D0C950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConditionData" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>KimHawon</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,11 +560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
